--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T15:36:13+00:00</t>
+    <t>2024-02-05T15:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T15:43:06+00:00</t>
+    <t>2024-02-05T15:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T15:49:45+00:00</t>
+    <t>2024-02-05T15:56:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T15:56:33+00:00</t>
+    <t>2024-02-05T16:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:03:39+00:00</t>
+    <t>2024-02-05T16:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:10:21+00:00</t>
+    <t>2024-02-05T16:17:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:17:27+00:00</t>
+    <t>2024-02-05T16:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:24:54+00:00</t>
+    <t>2024-02-05T16:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:32:16+00:00</t>
+    <t>2024-02-05T16:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:39:09+00:00</t>
+    <t>2024-02-05T16:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:45:50+00:00</t>
+    <t>2024-02-05T16:52:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:52:56+00:00</t>
+    <t>2024-02-05T16:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:59:45+00:00</t>
+    <t>2024-02-05T17:06:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:06:39+00:00</t>
+    <t>2024-02-05T17:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:13:28+00:00</t>
+    <t>2024-02-05T17:20:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:20:29+00:00</t>
+    <t>2024-02-05T17:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:27:46+00:00</t>
+    <t>2024-02-05T17:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:35:18+00:00</t>
+    <t>2024-02-05T17:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:42:27+00:00</t>
+    <t>2024-02-05T17:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:49:45+00:00</t>
+    <t>2024-02-05T17:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:56:59+00:00</t>
+    <t>2024-02-05T18:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T18:05:35+00:00</t>
+    <t>2024-02-05T18:12:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T18:12:50+00:00</t>
+    <t>2024-02-05T18:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T18:19:41+00:00</t>
+    <t>2024-02-05T18:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T18:26:31+00:00</t>
+    <t>2024-02-05T18:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T18:33:37+00:00</t>
+    <t>2024-02-05T18:40:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T18:40:32+00:00</t>
+    <t>2024-02-05T18:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T18:47:24+00:00</t>
+    <t>2024-02-05T18:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T18:54:30+00:00</t>
+    <t>2024-02-05T19:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T19:01:33+00:00</t>
+    <t>2024-02-05T19:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T19:08:50+00:00</t>
+    <t>2024-02-05T19:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T19:16:22+00:00</t>
+    <t>2024-02-05T19:23:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T19:23:29+00:00</t>
+    <t>2024-02-05T19:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T19:30:12+00:00</t>
+    <t>2024-02-05T19:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T19:36:56+00:00</t>
+    <t>2024-02-05T19:44:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T19:44:03+00:00</t>
+    <t>2024-02-05T19:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T19:50:40+00:00</t>
+    <t>2024-02-05T19:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T19:57:26+00:00</t>
+    <t>2024-02-05T20:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T20:04:28+00:00</t>
+    <t>2024-02-05T20:11:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T20:11:36+00:00</t>
+    <t>2024-02-05T20:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T20:18:39+00:00</t>
+    <t>2024-02-05T20:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T20:25:53+00:00</t>
+    <t>2024-02-05T20:33:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T20:33:04+00:00</t>
+    <t>2024-02-05T20:40:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T20:40:17+00:00</t>
+    <t>2024-02-05T20:47:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T20:47:11+00:00</t>
+    <t>2024-02-05T20:54:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T20:54:04+00:00</t>
+    <t>2024-02-05T21:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T21:01:16+00:00</t>
+    <t>2024-02-05T21:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T21:08:08+00:00</t>
+    <t>2024-02-05T21:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T21:14:53+00:00</t>
+    <t>2024-02-05T21:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T21:21:45+00:00</t>
+    <t>2024-02-05T21:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T21:28:49+00:00</t>
+    <t>2024-02-05T21:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T21:35:49+00:00</t>
+    <t>2024-02-05T21:42:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T21:42:38+00:00</t>
+    <t>2024-02-05T21:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T21:49:32+00:00</t>
+    <t>2024-02-05T21:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T21:56:15+00:00</t>
+    <t>2024-02-05T22:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T22:03:00+00:00</t>
+    <t>2024-02-05T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T22:09:51+00:00</t>
+    <t>2024-02-05T22:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T22:16:58+00:00</t>
+    <t>2024-02-05T22:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T22:24:16+00:00</t>
+    <t>2024-02-05T22:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T22:31:33+00:00</t>
+    <t>2024-02-05T22:38:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T22:38:36+00:00</t>
+    <t>2024-02-05T22:45:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T22:45:30+00:00</t>
+    <t>2024-02-05T22:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T22:53:40+00:00</t>
+    <t>2024-02-05T23:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T23:00:59+00:00</t>
+    <t>2024-02-05T23:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T23:08:08+00:00</t>
+    <t>2024-02-05T23:15:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T23:15:56+00:00</t>
+    <t>2024-02-05T23:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T23:22:56+00:00</t>
+    <t>2024-02-05T23:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T23:29:57+00:00</t>
+    <t>2024-02-05T23:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T23:37:04+00:00</t>
+    <t>2024-02-05T23:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T23:44:07+00:00</t>
+    <t>2024-02-05T23:51:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T23:51:14+00:00</t>
+    <t>2024-02-05T23:58:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T23:58:41+00:00</t>
+    <t>2024-02-06T00:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T00:06:11+00:00</t>
+    <t>2024-02-06T00:13:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T00:13:16+00:00</t>
+    <t>2024-02-06T00:20:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T00:20:14+00:00</t>
+    <t>2024-02-06T00:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T00:27:27+00:00</t>
+    <t>2024-02-06T00:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T00:34:48+00:00</t>
+    <t>2024-02-06T00:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T00:42:20+00:00</t>
+    <t>2024-02-06T00:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T00:49:27+00:00</t>
+    <t>2024-02-06T00:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T00:56:39+00:00</t>
+    <t>2024-02-06T01:03:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T01:03:42+00:00</t>
+    <t>2024-02-06T01:10:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T01:10:44+00:00</t>
+    <t>2024-02-06T01:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T01:18:57+00:00</t>
+    <t>2024-02-06T01:25:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T01:25:50+00:00</t>
+    <t>2024-02-06T01:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T01:33:06+00:00</t>
+    <t>2024-02-06T01:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T01:40:35+00:00</t>
+    <t>2024-02-06T01:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T01:48:03+00:00</t>
+    <t>2024-02-06T01:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T01:55:36+00:00</t>
+    <t>2024-02-06T02:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T02:03:06+00:00</t>
+    <t>2024-02-06T02:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T02:10:14+00:00</t>
+    <t>2024-02-06T02:17:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T02:17:08+00:00</t>
+    <t>2024-02-06T02:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T02:24:22+00:00</t>
+    <t>2024-02-06T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T02:32:07+00:00</t>
+    <t>2024-02-06T02:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T02:39:05+00:00</t>
+    <t>2024-02-06T02:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T02:46:13+00:00</t>
+    <t>2024-02-06T02:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T02:53:19+00:00</t>
+    <t>2024-02-06T03:00:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T03:00:24+00:00</t>
+    <t>2024-02-06T03:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T03:07:48+00:00</t>
+    <t>2024-02-06T03:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T03:14:58+00:00</t>
+    <t>2024-02-06T03:22:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T03:22:09+00:00</t>
+    <t>2024-02-06T03:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T03:29:35+00:00</t>
+    <t>2024-02-06T03:36:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T03:36:37+00:00</t>
+    <t>2024-02-06T03:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T03:43:49+00:00</t>
+    <t>2024-02-06T03:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T03:50:44+00:00</t>
+    <t>2024-02-06T03:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T03:57:59+00:00</t>
+    <t>2024-02-06T04:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T04:06:04+00:00</t>
+    <t>2024-02-06T04:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T04:13:31+00:00</t>
+    <t>2024-02-06T04:20:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T04:20:48+00:00</t>
+    <t>2024-02-06T04:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T04:28:10+00:00</t>
+    <t>2024-02-06T04:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T04:35:31+00:00</t>
+    <t>2024-02-06T04:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T04:42:34+00:00</t>
+    <t>2024-02-06T04:50:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T04:50:01+00:00</t>
+    <t>2024-02-06T04:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T04:57:18+00:00</t>
+    <t>2024-02-06T05:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T05:04:35+00:00</t>
+    <t>2024-02-06T05:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T05:11:54+00:00</t>
+    <t>2024-02-06T05:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T05:19:11+00:00</t>
+    <t>2024-02-06T05:26:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T05:26:14+00:00</t>
+    <t>2024-02-06T05:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T05:33:18+00:00</t>
+    <t>2024-02-06T05:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T05:40:15+00:00</t>
+    <t>2024-02-06T05:47:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T05:47:43+00:00</t>
+    <t>2024-02-06T05:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T05:54:37+00:00</t>
+    <t>2024-02-06T06:01:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T06:01:46+00:00</t>
+    <t>2024-02-06T06:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T06:08:56+00:00</t>
+    <t>2024-02-06T06:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T06:16:22+00:00</t>
+    <t>2024-02-06T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T06:24:09+00:00</t>
+    <t>2024-02-06T06:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T06:31:36+00:00</t>
+    <t>2024-02-06T06:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T06:39:21+00:00</t>
+    <t>2024-02-06T06:47:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T06:47:17+00:00</t>
+    <t>2024-02-06T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T06:55:13+00:00</t>
+    <t>2024-02-06T07:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T07:02:38+00:00</t>
+    <t>2024-02-06T07:09:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T07:09:52+00:00</t>
+    <t>2024-02-06T07:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T07:17:23+00:00</t>
+    <t>2024-02-06T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T07:24:51+00:00</t>
+    <t>2024-02-06T07:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T07:32:06+00:00</t>
+    <t>2024-02-06T07:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T07:39:32+00:00</t>
+    <t>2024-02-06T07:47:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/ig/plantuml/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T07:47:28+00:00</t>
+    <t>2024-02-06T07:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
